--- a/Code/Results/Cases/Case_4_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.133965400895988</v>
+        <v>5.010563347124673</v>
       </c>
       <c r="C2">
-        <v>1.683632284834573</v>
+        <v>0.6554134751303877</v>
       </c>
       <c r="D2">
-        <v>0.1974737525824679</v>
+        <v>0.07579977628580536</v>
       </c>
       <c r="E2">
-        <v>0.06363928127182561</v>
+        <v>0.02446419001990918</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008048133579594584</v>
+        <v>0.002655987569348779</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.14930686077318</v>
+        <v>0.1988097257590979</v>
       </c>
       <c r="M2">
-        <v>1.00422900520973</v>
+        <v>0.7849432847482802</v>
       </c>
       <c r="N2">
-        <v>4.292538680389299</v>
+        <v>4.316152919285202</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.200975501116886</v>
+        <v>4.825516395299758</v>
       </c>
       <c r="C3">
-        <v>1.437565229391907</v>
+        <v>0.5992126970652407</v>
       </c>
       <c r="D3">
-        <v>0.1686832209467752</v>
+        <v>0.06915090357891529</v>
       </c>
       <c r="E3">
-        <v>0.05458498017742741</v>
+        <v>0.02205428770693274</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008211834890989291</v>
+        <v>0.002665069102175239</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1347641973466125</v>
+        <v>0.1968057160936851</v>
       </c>
       <c r="M3">
-        <v>0.8770081536652512</v>
+        <v>0.7605971800985074</v>
       </c>
       <c r="N3">
-        <v>4.030681960316116</v>
+        <v>4.233266226938355</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.650240093553407</v>
+        <v>4.715444826874659</v>
       </c>
       <c r="C4">
-        <v>1.291943034954443</v>
+        <v>0.5651654514105076</v>
       </c>
       <c r="D4">
-        <v>0.1516231335114213</v>
+        <v>0.06512091509036111</v>
       </c>
       <c r="E4">
-        <v>0.04921678037804611</v>
+        <v>0.02056768052905511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000831360665473649</v>
+        <v>0.002670924753622492</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1262289306116173</v>
+        <v>0.195685027070823</v>
       </c>
       <c r="M4">
-        <v>0.8019557444316092</v>
+        <v>0.746188586931865</v>
       </c>
       <c r="N4">
-        <v>3.875683015930747</v>
+        <v>4.182794913455552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.430526776573572</v>
+        <v>4.67147095682077</v>
       </c>
       <c r="C5">
-        <v>1.233744490875495</v>
+        <v>0.5514033218601071</v>
       </c>
       <c r="D5">
-        <v>0.144800390038526</v>
+        <v>0.06349146509153059</v>
       </c>
       <c r="E5">
-        <v>0.04706798975763604</v>
+        <v>0.01995998826416567</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008355474841405248</v>
+        <v>0.002673381585602196</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1228370496540165</v>
+        <v>0.1952558168489134</v>
       </c>
       <c r="M5">
-        <v>0.7720263807495229</v>
+        <v>0.7404513102987096</v>
       </c>
       <c r="N5">
-        <v>3.813763810031645</v>
+        <v>4.162329826940095</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.39430587791594</v>
+        <v>4.664222034359625</v>
       </c>
       <c r="C6">
-        <v>1.224143642620902</v>
+        <v>0.5491248230547967</v>
       </c>
       <c r="D6">
-        <v>0.1436746064903218</v>
+        <v>0.06322165831453219</v>
       </c>
       <c r="E6">
-        <v>0.04671328314752543</v>
+        <v>0.0198589631177768</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008362453000014877</v>
+        <v>0.002673793814062061</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1222787034081065</v>
+        <v>0.1951862029313958</v>
       </c>
       <c r="M6">
-        <v>0.7670931508808536</v>
+        <v>0.7395067121248715</v>
       </c>
       <c r="N6">
-        <v>3.80355172137314</v>
+        <v>4.158937694407769</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.647258900511531</v>
+        <v>4.714848226312654</v>
       </c>
       <c r="C7">
-        <v>1.291153798199389</v>
+        <v>0.5649793997803272</v>
       </c>
       <c r="D7">
-        <v>0.1515306272397652</v>
+        <v>0.06509888842252565</v>
       </c>
       <c r="E7">
-        <v>0.04918765519266444</v>
+        <v>0.02055949281677272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000831416960631809</v>
+        <v>0.00267095760115994</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1261828526370579</v>
+        <v>0.1956791274898677</v>
       </c>
       <c r="M7">
-        <v>0.801549593900269</v>
+        <v>0.7461106699538078</v>
       </c>
       <c r="N7">
-        <v>3.87484317087231</v>
+        <v>4.182518504314487</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.80712738431879</v>
+        <v>4.946016016304782</v>
       </c>
       <c r="C8">
-        <v>1.597504297982709</v>
+        <v>0.6359378764357757</v>
       </c>
       <c r="D8">
-        <v>0.1874017977778379</v>
+        <v>0.07349612394546057</v>
       </c>
       <c r="E8">
-        <v>0.06047161268229928</v>
+        <v>0.02363460086198899</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008104367835231752</v>
+        <v>0.002659061048153094</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1442024993976361</v>
+        <v>0.1980958801930868</v>
       </c>
       <c r="M8">
-        <v>0.9596531640623951</v>
+        <v>0.7764357769334893</v>
       </c>
       <c r="N8">
-        <v>4.200914339567021</v>
+        <v>4.28748391631072</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.303587481926343</v>
+        <v>5.428021407016445</v>
       </c>
       <c r="C9">
-        <v>2.254276430288428</v>
+        <v>0.7788992176299985</v>
       </c>
       <c r="D9">
-        <v>0.2640623536008064</v>
+        <v>0.09039769157806177</v>
       </c>
       <c r="E9">
-        <v>0.08463158514808811</v>
+        <v>0.02961700387477251</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007698626468146277</v>
+        <v>0.002637935849428428</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1833591158598935</v>
+        <v>0.2037125302050171</v>
       </c>
       <c r="M9">
-        <v>1.300267435197014</v>
+        <v>0.8402586661214571</v>
       </c>
       <c r="N9">
-        <v>4.897620708619854</v>
+        <v>4.496838334729034</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.35523650660582</v>
+        <v>5.800434950874092</v>
       </c>
       <c r="C10">
-        <v>2.793508789265275</v>
+        <v>0.8864924200719884</v>
       </c>
       <c r="D10">
-        <v>0.3267506258559365</v>
+        <v>0.1031074425154657</v>
       </c>
       <c r="E10">
-        <v>0.1045495906480767</v>
+        <v>0.03399327314641454</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000739638913296664</v>
+        <v>0.002623738701323118</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2156735527395597</v>
+        <v>0.2083837435958742</v>
       </c>
       <c r="M10">
-        <v>1.58025979134662</v>
+        <v>0.8899102479541341</v>
       </c>
       <c r="N10">
-        <v>5.464419474878127</v>
+        <v>4.65305245163313</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.36139070879756</v>
+        <v>5.974006078039338</v>
       </c>
       <c r="C11">
-        <v>3.058203994459575</v>
+        <v>0.9360481020939915</v>
       </c>
       <c r="D11">
-        <v>0.3574353599786377</v>
+        <v>0.1089589956685444</v>
       </c>
       <c r="E11">
-        <v>0.1143776776489283</v>
+        <v>0.03598229951217391</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007255635642214909</v>
+        <v>0.002617563118453365</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2315179743804094</v>
+        <v>0.2106293218228359</v>
       </c>
       <c r="M11">
-        <v>1.717543126161601</v>
+        <v>0.9131215206894154</v>
       </c>
       <c r="N11">
-        <v>5.740354536473092</v>
+        <v>4.72469708499267</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.75583219010514</v>
+        <v>6.040345261771336</v>
       </c>
       <c r="C12">
-        <v>3.162050600922612</v>
+        <v>0.9549056414539905</v>
       </c>
       <c r="D12">
-        <v>0.3694574630078193</v>
+        <v>0.111185354805329</v>
       </c>
       <c r="E12">
-        <v>0.1182446732289613</v>
+        <v>0.03673542185122969</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007201593788600048</v>
+        <v>0.002615264910305925</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2377251669097973</v>
+        <v>0.2114971869790168</v>
       </c>
       <c r="M12">
-        <v>1.771352945255074</v>
+        <v>0.9220027372547293</v>
       </c>
       <c r="N12">
-        <v>5.848152480162469</v>
+        <v>4.751915187933491</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.67022755712185</v>
+        <v>6.026030511242993</v>
       </c>
       <c r="C13">
-        <v>3.139508744830323</v>
+        <v>0.9508401815588172</v>
       </c>
       <c r="D13">
-        <v>0.3668486319877076</v>
+        <v>0.1107053939208384</v>
       </c>
       <c r="E13">
-        <v>0.1174046998184721</v>
+        <v>0.03657322416414033</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007213270914778936</v>
+        <v>0.002615758080883729</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2363782992874235</v>
+        <v>0.2113094950270238</v>
       </c>
       <c r="M13">
-        <v>1.759675243317659</v>
+        <v>0.9200859045810006</v>
       </c>
       <c r="N13">
-        <v>5.824775593390484</v>
+        <v>4.746049309196223</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.3935521878002</v>
+        <v>5.979451506617124</v>
       </c>
       <c r="C14">
-        <v>3.066669466949634</v>
+        <v>0.9375976584377099</v>
       </c>
       <c r="D14">
-        <v>0.3584157377791684</v>
+        <v>0.109141946387652</v>
       </c>
       <c r="E14">
-        <v>0.1146926634743117</v>
+        <v>0.03604425990513249</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007251206312575373</v>
+        <v>0.002617373236683057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2320241996483787</v>
+        <v>0.2107003696290093</v>
       </c>
       <c r="M14">
-        <v>1.72193082158158</v>
+        <v>0.9138503371544573</v>
       </c>
       <c r="N14">
-        <v>5.749152045187088</v>
+        <v>4.726934550376313</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.22593322228522</v>
+        <v>5.951000575589546</v>
       </c>
       <c r="C15">
-        <v>3.02255258772567</v>
+        <v>0.9294983169527882</v>
       </c>
       <c r="D15">
-        <v>0.3533059332615238</v>
+        <v>0.1081856713542209</v>
       </c>
       <c r="E15">
-        <v>0.1130516207754617</v>
+        <v>0.03572024901077597</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007274336753048052</v>
+        <v>0.002618367811905311</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2293856621902677</v>
+        <v>0.2103295486064383</v>
       </c>
       <c r="M15">
-        <v>1.699062660899983</v>
+        <v>0.9100428570898202</v>
       </c>
       <c r="N15">
-        <v>5.703285706297208</v>
+        <v>4.715237771553348</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.29118093694728</v>
+        <v>5.789176499536893</v>
       </c>
       <c r="C16">
-        <v>2.776665401246817</v>
+        <v>0.883266475546975</v>
       </c>
       <c r="D16">
-        <v>0.3247960742345697</v>
+        <v>0.1027264740436493</v>
       </c>
       <c r="E16">
-        <v>0.1039254845363473</v>
+        <v>0.03386326498274173</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007405500569037121</v>
+        <v>0.002624147953679972</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2146644856659918</v>
+        <v>0.2082394312122631</v>
       </c>
       <c r="M16">
-        <v>1.571518872792041</v>
+        <v>0.8884060567887957</v>
       </c>
       <c r="N16">
-        <v>5.446806290582288</v>
+        <v>4.648382370490538</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.73824137862107</v>
+        <v>5.690977273323483</v>
       </c>
       <c r="C17">
-        <v>2.631300785060716</v>
+        <v>0.8550640544568182</v>
       </c>
       <c r="D17">
-        <v>0.3079178747822482</v>
+        <v>0.09939564211136087</v>
       </c>
       <c r="E17">
-        <v>0.0985450264520864</v>
+        <v>0.03272373730688471</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000748495971974236</v>
+        <v>0.002627766086752083</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2059533590515628</v>
+        <v>0.2069882233843146</v>
       </c>
       <c r="M17">
-        <v>1.496062127990982</v>
+        <v>0.8752938031570778</v>
       </c>
       <c r="N17">
-        <v>5.294539981944808</v>
+        <v>4.607520742480659</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.42684308866978</v>
+        <v>5.634886240977949</v>
       </c>
       <c r="C18">
-        <v>2.549455378238633</v>
+        <v>0.8389000308749246</v>
       </c>
       <c r="D18">
-        <v>0.2984072729302625</v>
+        <v>0.09748637944960592</v>
       </c>
       <c r="E18">
-        <v>0.09551993515475488</v>
+        <v>0.03206813474575654</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007530375424049447</v>
+        <v>0.002629873775707739</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2010475250456381</v>
+        <v>0.2062799045912556</v>
       </c>
       <c r="M18">
-        <v>1.453565051784466</v>
+        <v>0.8678106531074263</v>
       </c>
       <c r="N18">
-        <v>5.208611657099453</v>
+        <v>4.584072747765731</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.32247259658038</v>
+        <v>5.615961453148316</v>
       </c>
       <c r="C19">
-        <v>2.522025769766856</v>
+        <v>0.8334368845258382</v>
       </c>
       <c r="D19">
-        <v>0.2952186866530013</v>
+        <v>0.0968410459250606</v>
       </c>
       <c r="E19">
-        <v>0.09450675132321251</v>
+        <v>0.03184612344508153</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007545710128781168</v>
+        <v>0.002630591986883285</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1994033445584051</v>
+        <v>0.2060420231355096</v>
       </c>
       <c r="M19">
-        <v>1.439321174174552</v>
+        <v>0.8652870097901513</v>
       </c>
       <c r="N19">
-        <v>5.17978309480182</v>
+        <v>4.576142900924594</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.79639707540434</v>
+        <v>5.70139022931312</v>
       </c>
       <c r="C20">
-        <v>2.646587299339785</v>
+        <v>0.8580602950408434</v>
       </c>
       <c r="D20">
-        <v>0.309693596402127</v>
+        <v>0.09974953428982758</v>
       </c>
       <c r="E20">
-        <v>0.09911036265963702</v>
+        <v>0.03284505897787326</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007476532586759228</v>
+        <v>0.002627378175903084</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.206869579358866</v>
+        <v>0.2071202414509656</v>
       </c>
       <c r="M20">
-        <v>1.503998588982682</v>
+        <v>0.8766835397587727</v>
       </c>
       <c r="N20">
-        <v>5.310573628053703</v>
+        <v>4.611864858872536</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.4744257091354</v>
+        <v>5.993116181298433</v>
       </c>
       <c r="C21">
-        <v>3.087958221540134</v>
+        <v>0.941484782395662</v>
       </c>
       <c r="D21">
-        <v>0.3608808949104088</v>
+        <v>0.1096008800360693</v>
       </c>
       <c r="E21">
-        <v>0.1154849737875558</v>
+        <v>0.03619963025818507</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007240086486525464</v>
+        <v>0.002616897733810156</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2332970750901211</v>
+        <v>0.2108788078412971</v>
       </c>
       <c r="M21">
-        <v>1.732963991042169</v>
+        <v>0.9156793734900361</v>
       </c>
       <c r="N21">
-        <v>5.771268060868408</v>
+        <v>4.732546601187096</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.65153410448568</v>
+        <v>6.187347221678579</v>
       </c>
       <c r="C22">
-        <v>3.398070412419656</v>
+        <v>0.9965449840530027</v>
       </c>
       <c r="D22">
-        <v>0.3967458878916688</v>
+        <v>0.1161007464401962</v>
       </c>
       <c r="E22">
-        <v>0.1270594402891767</v>
+        <v>0.03839166126097027</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007081037350252231</v>
+        <v>0.002610283208415165</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2518072300878629</v>
+        <v>0.2134374125730574</v>
       </c>
       <c r="M22">
-        <v>1.893520717480243</v>
+        <v>0.9417002633620939</v>
       </c>
       <c r="N22">
-        <v>6.092137945539037</v>
+        <v>4.811933045080195</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.01469091611034</v>
+        <v>6.083351090663882</v>
       </c>
       <c r="C23">
-        <v>3.230229947074349</v>
+        <v>0.9671077838645488</v>
       </c>
       <c r="D23">
-        <v>0.3773453515854897</v>
+        <v>0.1126258675111842</v>
       </c>
       <c r="E23">
-        <v>0.1207872045509149</v>
+        <v>0.03722170869183117</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007166452409540169</v>
+        <v>0.002613792101288259</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2417969602050505</v>
+        <v>0.2120624317238224</v>
       </c>
       <c r="M23">
-        <v>1.806663182184806</v>
+        <v>0.927762874141564</v>
       </c>
       <c r="N23">
-        <v>5.918779727257515</v>
+        <v>4.769514591306745</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.77008486731324</v>
+        <v>5.696681396006738</v>
       </c>
       <c r="C24">
-        <v>2.639670946450565</v>
+        <v>0.8567055394736371</v>
       </c>
       <c r="D24">
-        <v>0.3088901982580552</v>
+        <v>0.09958952198847726</v>
       </c>
       <c r="E24">
-        <v>0.09885456418559357</v>
+        <v>0.03279021093663204</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007480343304560697</v>
+        <v>0.002627553464365907</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2064550405267909</v>
+        <v>0.2070605217796384</v>
       </c>
       <c r="M24">
-        <v>1.500407789731469</v>
+        <v>0.8760550678568251</v>
       </c>
       <c r="N24">
-        <v>5.303319846996203</v>
+        <v>4.609900747426593</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.597098878592988</v>
+        <v>5.294474093087501</v>
       </c>
       <c r="C25">
-        <v>2.068589877990007</v>
+        <v>0.7397922683657043</v>
       </c>
       <c r="D25">
-        <v>0.242422084651281</v>
+        <v>0.08577606596887222</v>
       </c>
       <c r="E25">
-        <v>0.07779571535897745</v>
+        <v>0.02800269108135822</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007808464772584992</v>
+        <v>0.002643416898370291</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1722475117471518</v>
+        <v>0.2020981558573069</v>
       </c>
       <c r="M25">
-        <v>1.203852851295565</v>
+        <v>0.8225158504904186</v>
       </c>
       <c r="N25">
-        <v>4.701207925277231</v>
+        <v>4.439799518336486</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.010563347124673</v>
+        <v>7.133965400895875</v>
       </c>
       <c r="C2">
-        <v>0.6554134751303877</v>
+        <v>1.683632284834914</v>
       </c>
       <c r="D2">
-        <v>0.07579977628580536</v>
+        <v>0.1974737525826384</v>
       </c>
       <c r="E2">
-        <v>0.02446419001990918</v>
+        <v>0.06363928127179364</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002655987569348779</v>
+        <v>0.0008048133579524657</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1988097257590979</v>
+        <v>0.149306860773109</v>
       </c>
       <c r="M2">
-        <v>0.7849432847482802</v>
+        <v>1.004229005209751</v>
       </c>
       <c r="N2">
-        <v>4.316152919285202</v>
+        <v>4.292538680389242</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.825516395299758</v>
+        <v>6.200975501116943</v>
       </c>
       <c r="C3">
-        <v>0.5992126970652407</v>
+        <v>1.437565229391964</v>
       </c>
       <c r="D3">
-        <v>0.06915090357891529</v>
+        <v>0.1686832209467468</v>
       </c>
       <c r="E3">
-        <v>0.02205428770693274</v>
+        <v>0.05458498017744873</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002665069102175239</v>
+        <v>0.0008211834891501809</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1968057160936851</v>
+        <v>0.1347641973466338</v>
       </c>
       <c r="M3">
-        <v>0.7605971800985074</v>
+        <v>0.8770081536652512</v>
       </c>
       <c r="N3">
-        <v>4.233266226938355</v>
+        <v>4.030681960316087</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.715444826874659</v>
+        <v>5.650240093553577</v>
       </c>
       <c r="C4">
-        <v>0.5651654514105076</v>
+        <v>1.291943034954386</v>
       </c>
       <c r="D4">
-        <v>0.06512091509036111</v>
+        <v>0.1516231335113076</v>
       </c>
       <c r="E4">
-        <v>0.02056768052905511</v>
+        <v>0.04921678037808519</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002670924753622492</v>
+        <v>0.000831360665470307</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.195685027070823</v>
+        <v>0.1262289306116671</v>
       </c>
       <c r="M4">
-        <v>0.746188586931865</v>
+        <v>0.8019557444316092</v>
       </c>
       <c r="N4">
-        <v>4.182794913455552</v>
+        <v>3.875683015930719</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.67147095682077</v>
+        <v>5.430526776573572</v>
       </c>
       <c r="C5">
-        <v>0.5514033218601071</v>
+        <v>1.233744490875495</v>
       </c>
       <c r="D5">
-        <v>0.06349146509153059</v>
+        <v>0.144800390038526</v>
       </c>
       <c r="E5">
-        <v>0.01995998826416567</v>
+        <v>0.0470679897576467</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002673381585602196</v>
+        <v>0.0008355474840797683</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1952558168489134</v>
+        <v>0.1228370496540023</v>
       </c>
       <c r="M5">
-        <v>0.7404513102987096</v>
+        <v>0.7720263807495016</v>
       </c>
       <c r="N5">
-        <v>4.162329826940095</v>
+        <v>3.813763810031617</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.664222034359625</v>
+        <v>5.394305877915826</v>
       </c>
       <c r="C6">
-        <v>0.5491248230547967</v>
+        <v>1.2241436426213</v>
       </c>
       <c r="D6">
-        <v>0.06322165831453219</v>
+        <v>0.1436746064905776</v>
       </c>
       <c r="E6">
-        <v>0.0198589631177768</v>
+        <v>0.04671328314753254</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002673793814062061</v>
+        <v>0.0008362453000621706</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1951862029313958</v>
+        <v>0.1222787034082202</v>
       </c>
       <c r="M6">
-        <v>0.7395067121248715</v>
+        <v>0.7670931508808323</v>
       </c>
       <c r="N6">
-        <v>4.158937694407769</v>
+        <v>3.80355172137314</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.714848226312654</v>
+        <v>5.647258900511304</v>
       </c>
       <c r="C7">
-        <v>0.5649793997803272</v>
+        <v>1.291153798199787</v>
       </c>
       <c r="D7">
-        <v>0.06509888842252565</v>
+        <v>0.1515306272398362</v>
       </c>
       <c r="E7">
-        <v>0.02055949281677272</v>
+        <v>0.04918765519272128</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00267095760115994</v>
+        <v>0.000831416960547635</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1956791274898677</v>
+        <v>0.1261828526369726</v>
       </c>
       <c r="M7">
-        <v>0.7461106699538078</v>
+        <v>0.801549593900269</v>
       </c>
       <c r="N7">
-        <v>4.182518504314487</v>
+        <v>3.87484317087231</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.946016016304782</v>
+        <v>6.80712738431879</v>
       </c>
       <c r="C8">
-        <v>0.6359378764357757</v>
+        <v>1.597504297982198</v>
       </c>
       <c r="D8">
-        <v>0.07349612394546057</v>
+        <v>0.1874017977775679</v>
       </c>
       <c r="E8">
-        <v>0.02363460086198899</v>
+        <v>0.06047161268233481</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002659061048153094</v>
+        <v>0.0008104367835359225</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1980958801930868</v>
+        <v>0.1442024993976858</v>
       </c>
       <c r="M8">
-        <v>0.7764357769334893</v>
+        <v>0.9596531640624093</v>
       </c>
       <c r="N8">
-        <v>4.28748391631072</v>
+        <v>4.200914339567021</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.428021407016445</v>
+        <v>9.30358748192657</v>
       </c>
       <c r="C9">
-        <v>0.7788992176299985</v>
+        <v>2.254276430289281</v>
       </c>
       <c r="D9">
-        <v>0.09039769157806177</v>
+        <v>0.2640623536010196</v>
       </c>
       <c r="E9">
-        <v>0.02961700387477251</v>
+        <v>0.08463158514799574</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002637935849428428</v>
+        <v>0.0007698626469197739</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2037125302050171</v>
+        <v>0.1833591158599646</v>
       </c>
       <c r="M9">
-        <v>0.8402586661214571</v>
+        <v>1.300267435197014</v>
       </c>
       <c r="N9">
-        <v>4.496838334729034</v>
+        <v>4.897620708619854</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.800434950874092</v>
+        <v>11.35523650660605</v>
       </c>
       <c r="C10">
-        <v>0.8864924200719884</v>
+        <v>2.793508789264422</v>
       </c>
       <c r="D10">
-        <v>0.1031074425154657</v>
+        <v>0.3267506258562065</v>
       </c>
       <c r="E10">
-        <v>0.03399327314641454</v>
+        <v>0.1045495906481477</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002623738701323118</v>
+        <v>0.0007396389133105227</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2083837435958742</v>
+        <v>0.2156735527395881</v>
       </c>
       <c r="M10">
-        <v>0.8899102479541341</v>
+        <v>1.580259791346634</v>
       </c>
       <c r="N10">
-        <v>4.65305245163313</v>
+        <v>5.464419474878184</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.974006078039338</v>
+        <v>12.36139070879733</v>
       </c>
       <c r="C11">
-        <v>0.9360481020939915</v>
+        <v>3.05820399446003</v>
       </c>
       <c r="D11">
-        <v>0.1089589956685444</v>
+        <v>0.357435359978723</v>
       </c>
       <c r="E11">
-        <v>0.03598229951217391</v>
+        <v>0.114377677648946</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002617563118453365</v>
+        <v>0.0007255635642291077</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2106293218228359</v>
+        <v>0.2315179743802673</v>
       </c>
       <c r="M11">
-        <v>0.9131215206894154</v>
+        <v>1.717543126161601</v>
       </c>
       <c r="N11">
-        <v>4.72469708499267</v>
+        <v>5.740354536473035</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.040345261771336</v>
+        <v>12.75583219010502</v>
       </c>
       <c r="C12">
-        <v>0.9549056414539905</v>
+        <v>3.162050600923862</v>
       </c>
       <c r="D12">
-        <v>0.111185354805329</v>
+        <v>0.3694574630075635</v>
       </c>
       <c r="E12">
-        <v>0.03673542185122969</v>
+        <v>0.1182446732289471</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002615264910305925</v>
+        <v>0.0007201593790868997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2114971869790168</v>
+        <v>0.2377251669097404</v>
       </c>
       <c r="M12">
-        <v>0.9220027372547293</v>
+        <v>1.77135294525506</v>
       </c>
       <c r="N12">
-        <v>4.751915187933491</v>
+        <v>5.848152480162582</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.026030511242993</v>
+        <v>12.67022755712162</v>
       </c>
       <c r="C13">
-        <v>0.9508401815588172</v>
+        <v>3.139508744829868</v>
       </c>
       <c r="D13">
-        <v>0.1107053939208384</v>
+        <v>0.3668486319879634</v>
       </c>
       <c r="E13">
-        <v>0.03657322416414033</v>
+        <v>0.1174046998184579</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002615758080883729</v>
+        <v>0.0007213270914727706</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2113094950270238</v>
+        <v>0.2363782992874661</v>
       </c>
       <c r="M13">
-        <v>0.9200859045810006</v>
+        <v>1.759675243317645</v>
       </c>
       <c r="N13">
-        <v>4.746049309196223</v>
+        <v>5.824775593390541</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.979451506617124</v>
+        <v>12.39355218780042</v>
       </c>
       <c r="C14">
-        <v>0.9375976584377099</v>
+        <v>3.066669466949577</v>
       </c>
       <c r="D14">
-        <v>0.109141946387652</v>
+        <v>0.3584157377787136</v>
       </c>
       <c r="E14">
-        <v>0.03604425990513249</v>
+        <v>0.1146926634743117</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002617373236683057</v>
+        <v>0.0007251206311498721</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2107003696290093</v>
+        <v>0.2320241996482508</v>
       </c>
       <c r="M14">
-        <v>0.9138503371544573</v>
+        <v>1.721930821581552</v>
       </c>
       <c r="N14">
-        <v>4.726934550376313</v>
+        <v>5.749152045187088</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.951000575589546</v>
+        <v>12.22593322228545</v>
       </c>
       <c r="C15">
-        <v>0.9294983169527882</v>
+        <v>3.022552587725613</v>
       </c>
       <c r="D15">
-        <v>0.1081856713542209</v>
+        <v>0.3533059332616659</v>
       </c>
       <c r="E15">
-        <v>0.03572024901077597</v>
+        <v>0.1130516207754795</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002618367811905311</v>
+        <v>0.0007274336752846908</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2103295486064383</v>
+        <v>0.2293856621899266</v>
       </c>
       <c r="M15">
-        <v>0.9100428570898202</v>
+        <v>1.699062660900012</v>
       </c>
       <c r="N15">
-        <v>4.715237771553348</v>
+        <v>5.703285706297265</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.789176499536893</v>
+        <v>11.29118093694728</v>
       </c>
       <c r="C16">
-        <v>0.883266475546975</v>
+        <v>2.776665401247328</v>
       </c>
       <c r="D16">
-        <v>0.1027264740436493</v>
+        <v>0.3247960742345981</v>
       </c>
       <c r="E16">
-        <v>0.03386326498274173</v>
+        <v>0.1039254845364077</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002624147953679972</v>
+        <v>0.000740550057015675</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2082394312122631</v>
+        <v>0.2146644856659066</v>
       </c>
       <c r="M16">
-        <v>0.8884060567887957</v>
+        <v>1.571518872792055</v>
       </c>
       <c r="N16">
-        <v>4.648382370490538</v>
+        <v>5.446806290582288</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.690977273323483</v>
+        <v>10.73824137862084</v>
       </c>
       <c r="C17">
-        <v>0.8550640544568182</v>
+        <v>2.631300785060319</v>
       </c>
       <c r="D17">
-        <v>0.09939564211136087</v>
+        <v>0.3079178747822908</v>
       </c>
       <c r="E17">
-        <v>0.03272373730688471</v>
+        <v>0.09854502645204022</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002627766086752083</v>
+        <v>0.000748495971866552</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2069882233843146</v>
+        <v>0.2059533590516622</v>
       </c>
       <c r="M17">
-        <v>0.8752938031570778</v>
+        <v>1.496062127990953</v>
       </c>
       <c r="N17">
-        <v>4.607520742480659</v>
+        <v>5.294539981944808</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.634886240977949</v>
+        <v>10.42684308866956</v>
       </c>
       <c r="C18">
-        <v>0.8389000308749246</v>
+        <v>2.549455378238747</v>
       </c>
       <c r="D18">
-        <v>0.09748637944960592</v>
+        <v>0.2984072729295661</v>
       </c>
       <c r="E18">
-        <v>0.03206813474575654</v>
+        <v>0.09551993515471935</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002629873775707739</v>
+        <v>0.0007530375424021068</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2062799045912556</v>
+        <v>0.2010475250457091</v>
       </c>
       <c r="M18">
-        <v>0.8678106531074263</v>
+        <v>1.453565051784452</v>
       </c>
       <c r="N18">
-        <v>4.584072747765731</v>
+        <v>5.208611657099453</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.615961453148316</v>
+        <v>10.32247259658038</v>
       </c>
       <c r="C19">
-        <v>0.8334368845258382</v>
+        <v>2.522025769766799</v>
       </c>
       <c r="D19">
-        <v>0.0968410459250606</v>
+        <v>0.2952186866530297</v>
       </c>
       <c r="E19">
-        <v>0.03184612344508153</v>
+        <v>0.09450675132316633</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002630591986883285</v>
+        <v>0.0007545710127690631</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2060420231355096</v>
+        <v>0.1994033445583483</v>
       </c>
       <c r="M19">
-        <v>0.8652870097901513</v>
+        <v>1.439321174174552</v>
       </c>
       <c r="N19">
-        <v>4.576142900924594</v>
+        <v>5.179783094801905</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.70139022931312</v>
+        <v>10.79639707540468</v>
       </c>
       <c r="C20">
-        <v>0.8580602950408434</v>
+        <v>2.646587299340581</v>
       </c>
       <c r="D20">
-        <v>0.09974953428982758</v>
+        <v>0.3096935964021412</v>
       </c>
       <c r="E20">
-        <v>0.03284505897787326</v>
+        <v>0.09911036265953044</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002627378175903084</v>
+        <v>0.0007476532587881558</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2071202414509656</v>
+        <v>0.2068695793590507</v>
       </c>
       <c r="M20">
-        <v>0.8766835397587727</v>
+        <v>1.503998588982682</v>
       </c>
       <c r="N20">
-        <v>4.611864858872536</v>
+        <v>5.310573628053646</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.993116181298433</v>
+        <v>12.47442570913529</v>
       </c>
       <c r="C21">
-        <v>0.941484782395662</v>
+        <v>3.087958221540987</v>
       </c>
       <c r="D21">
-        <v>0.1096008800360693</v>
+        <v>0.3608808949103235</v>
       </c>
       <c r="E21">
-        <v>0.03619963025818507</v>
+        <v>0.1154849737875558</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002616897733810156</v>
+        <v>0.0007240086487720312</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2108788078412971</v>
+        <v>0.2332970750901922</v>
       </c>
       <c r="M21">
-        <v>0.9156793734900361</v>
+        <v>1.732963991042169</v>
       </c>
       <c r="N21">
-        <v>4.732546601187096</v>
+        <v>5.771268060868408</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.187347221678579</v>
+        <v>13.65153410448613</v>
       </c>
       <c r="C22">
-        <v>0.9965449840530027</v>
+        <v>3.398070412420509</v>
       </c>
       <c r="D22">
-        <v>0.1161007464401962</v>
+        <v>0.396745887891413</v>
       </c>
       <c r="E22">
-        <v>0.03839166126097027</v>
+        <v>0.127059440289127</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002610283208415165</v>
+        <v>0.0007081037350413148</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2134374125730574</v>
+        <v>0.2518072300879339</v>
       </c>
       <c r="M22">
-        <v>0.9417002633620939</v>
+        <v>1.893520717480271</v>
       </c>
       <c r="N22">
-        <v>4.811933045080195</v>
+        <v>6.092137945539037</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.083351090663882</v>
+        <v>13.01469091611011</v>
       </c>
       <c r="C23">
-        <v>0.9671077838645488</v>
+        <v>3.230229947074349</v>
       </c>
       <c r="D23">
-        <v>0.1126258675111842</v>
+        <v>0.3773453515857454</v>
       </c>
       <c r="E23">
-        <v>0.03722170869183117</v>
+        <v>0.120787204550922</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002613792101288259</v>
+        <v>0.0007166452409835538</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2120624317238224</v>
+        <v>0.241796960205221</v>
       </c>
       <c r="M23">
-        <v>0.927762874141564</v>
+        <v>1.806663182184778</v>
       </c>
       <c r="N23">
-        <v>4.769514591306745</v>
+        <v>5.918779727257458</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.696681396006738</v>
+        <v>10.77008486731324</v>
       </c>
       <c r="C24">
-        <v>0.8567055394736371</v>
+        <v>2.63967094645102</v>
       </c>
       <c r="D24">
-        <v>0.09958952198847726</v>
+        <v>0.3088901982579415</v>
       </c>
       <c r="E24">
-        <v>0.03279021093663204</v>
+        <v>0.0988545641854941</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002627553464365907</v>
+        <v>0.000748034330325718</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2070605217796384</v>
+        <v>0.2064550405267909</v>
       </c>
       <c r="M24">
-        <v>0.8760550678568251</v>
+        <v>1.500407789731526</v>
       </c>
       <c r="N24">
-        <v>4.609900747426593</v>
+        <v>5.303319846996317</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.294474093087501</v>
+        <v>8.597098878592874</v>
       </c>
       <c r="C25">
-        <v>0.7397922683657043</v>
+        <v>2.068589877990007</v>
       </c>
       <c r="D25">
-        <v>0.08577606596887222</v>
+        <v>0.2424220846509968</v>
       </c>
       <c r="E25">
-        <v>0.02800269108135822</v>
+        <v>0.07779571535895613</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002643416898370291</v>
+        <v>0.0007808464774655899</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2020981558573069</v>
+        <v>0.1722475117472158</v>
       </c>
       <c r="M25">
-        <v>0.8225158504904186</v>
+        <v>1.203852851295565</v>
       </c>
       <c r="N25">
-        <v>4.439799518336486</v>
+        <v>4.701207925277174</v>
       </c>
       <c r="O25">
         <v>0</v>
